--- a/Images/Sensor Power Budget.xlsx
+++ b/Images/Sensor Power Budget.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mittl\Desktop\ASU\ASU 2025\Spring 2025\EGR314\Homework\New folder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mittl\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5DE0647-DB76-408B-A78C-82E842B3E843}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBBDC873-C74C-429E-BA01-5CA44B0AAFAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{34D885F5-F4EF-43B6-9EAE-3F0AD760A03E}"/>
   </bookViews>
@@ -83,9 +83,6 @@
     <t>-0.5 - 6.0V</t>
   </si>
   <si>
-    <t>LM2674MX-3.3/NOPB</t>
-  </si>
-  <si>
     <t>B. Assign each major component to ONE power rail below.</t>
   </si>
   <si>
@@ -119,9 +116,6 @@
     <t>+1.8 - 5.5V</t>
   </si>
   <si>
-    <t>+6.5 - 45V</t>
-  </si>
-  <si>
     <t>Total Remaining Current on +3.3V Rail</t>
   </si>
   <si>
@@ -152,9 +146,6 @@
     <t>Power Rails Connected to External Power Source 1</t>
   </si>
   <si>
-    <t>6.5-45V</t>
-  </si>
-  <si>
     <t>Output Voltage</t>
   </si>
   <si>
@@ -165,6 +156,15 @@
   </si>
   <si>
     <t>Total Remaining Current Available on External Power Source 1</t>
+  </si>
+  <si>
+    <t>L6981C33DR</t>
+  </si>
+  <si>
+    <t>+3.5 - 38V</t>
+  </si>
+  <si>
+    <t>3.5-38V</t>
   </si>
 </sst>
 </file>
@@ -484,55 +484,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyBorder="1"/>
@@ -545,6 +506,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -553,12 +541,25 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -904,8 +905,8 @@
   </sheetPr>
   <dimension ref="B2:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -920,86 +921,86 @@
   <sheetData>
     <row r="2" spans="2:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.6"/>
     <row r="3" spans="2:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="21"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="28"/>
     </row>
     <row r="4" spans="2:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B4" s="16"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="18"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="25"/>
     </row>
     <row r="5" spans="2:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="15"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="22"/>
     </row>
     <row r="6" spans="2:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B6" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="27" t="s">
+      <c r="B6" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="27" t="s">
+      <c r="D6" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="27" t="s">
+      <c r="E6" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="27" t="s">
+      <c r="F6" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="27" t="s">
+      <c r="G6" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="27" t="s">
+      <c r="H6" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="28" t="s">
+      <c r="I6" s="15" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="2:9" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" s="22"/>
-      <c r="C7" s="23" t="s">
+      <c r="B7" s="9"/>
+      <c r="C7" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="23" t="s">
+      <c r="D7" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" s="23">
+      <c r="E7" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="10">
         <v>1</v>
       </c>
-      <c r="G7" s="23">
+      <c r="G7" s="10">
         <v>350</v>
       </c>
-      <c r="H7" s="23">
+      <c r="H7" s="10">
         <v>350</v>
       </c>
-      <c r="I7" s="25" t="s">
+      <c r="I7" s="12" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1028,74 +1029,74 @@
       </c>
     </row>
     <row r="9" spans="2:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B9" s="29"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="31"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="18"/>
     </row>
     <row r="10" spans="2:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B10" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="15"/>
+      <c r="B10" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="22"/>
     </row>
     <row r="11" spans="2:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B11" s="32" t="s">
+      <c r="B11" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="D11" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="E11" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="F11" s="27" t="s">
+      <c r="F11" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="G11" s="27" t="s">
+      <c r="G11" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="H11" s="27" t="s">
+      <c r="H11" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="I11" s="28" t="s">
+      <c r="I11" s="15" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="12" spans="2:9" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" s="22"/>
-      <c r="C12" s="23" t="s">
+      <c r="B12" s="9"/>
+      <c r="C12" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="23" t="s">
+      <c r="D12" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="F12" s="23">
+      <c r="E12" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="10">
         <v>1</v>
       </c>
-      <c r="G12" s="23">
+      <c r="G12" s="10">
         <v>350</v>
       </c>
-      <c r="H12" s="23">
+      <c r="H12" s="10">
         <v>350</v>
       </c>
-      <c r="I12" s="25" t="s">
+      <c r="I12" s="12" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1145,13 +1146,13 @@
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="1"/>
-      <c r="C16" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
+      <c r="C16" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
       <c r="H16" s="2">
         <f>SUM(H12,H13)</f>
         <v>360</v>
@@ -1162,27 +1163,27 @@
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" s="1"/>
-      <c r="C17" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="6">
+      <c r="C17" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="5">
         <v>0.25</v>
       </c>
       <c r="I17" s="4"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" s="1"/>
-      <c r="C18" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
+      <c r="C18" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="34"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="34"/>
       <c r="H18" s="2">
         <f xml:space="preserve"> H16*(1 + H17)</f>
         <v>450</v>
@@ -1203,25 +1204,25 @@
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B20" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>15</v>
+      <c r="D20" s="38" t="s">
+        <v>40</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="F20" s="2">
         <v>1</v>
       </c>
       <c r="G20" s="2">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="H20" s="2">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="I20" s="4" t="s">
         <v>10</v>
@@ -1229,114 +1230,114 @@
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B21" s="1"/>
-      <c r="C21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
+      <c r="C21" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" s="35"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="35"/>
       <c r="H21" s="2">
         <f>H20-H18</f>
-        <v>50</v>
+        <v>1050</v>
       </c>
       <c r="I21" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="22" spans="2:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B22" s="29"/>
-      <c r="C22" s="30"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="30"/>
-      <c r="F22" s="30"/>
-      <c r="G22" s="30"/>
-      <c r="H22" s="30"/>
-      <c r="I22" s="31"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="18"/>
     </row>
     <row r="23" spans="2:9" ht="27" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B23" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="C23" s="34"/>
-      <c r="D23" s="34"/>
-      <c r="E23" s="34"/>
-      <c r="F23" s="34"/>
-      <c r="G23" s="34"/>
-      <c r="H23" s="34"/>
-      <c r="I23" s="35"/>
+      <c r="B23" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="30"/>
+      <c r="H23" s="30"/>
+      <c r="I23" s="31"/>
     </row>
     <row r="24" spans="2:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B24" s="36"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="17"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="24"/>
+      <c r="H24" s="24"/>
       <c r="I24" s="37"/>
     </row>
     <row r="25" spans="2:9" ht="40.799999999999997" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B25" s="33" t="s">
+      <c r="B25" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" s="30"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="30"/>
+      <c r="H25" s="30"/>
+      <c r="I25" s="31"/>
+    </row>
+    <row r="26" spans="2:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B26" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C25" s="34"/>
-      <c r="D25" s="34"/>
-      <c r="E25" s="34"/>
-      <c r="F25" s="34"/>
-      <c r="G25" s="34"/>
-      <c r="H25" s="34"/>
-      <c r="I25" s="35"/>
-    </row>
-    <row r="26" spans="2:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B26" s="26" t="s">
+      <c r="C26" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D26" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="F26" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="G26" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="H26" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="I26" s="15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B27" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C26" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="D26" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="E26" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="F26" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="G26" s="27" t="s">
+      <c r="C27" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="H26" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="I26" s="28" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B27" s="22" t="s">
+      <c r="D27" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C27" s="23" t="s">
+      <c r="E27" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D27" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="E27" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="F27" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="G27" s="23">
+      <c r="F27" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="G27" s="10">
         <v>3000</v>
       </c>
-      <c r="H27" s="23">
+      <c r="H27" s="10">
         <v>3000</v>
       </c>
-      <c r="I27" s="25" t="s">
+      <c r="I27" s="12" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1351,33 +1352,33 @@
       <c r="I28" s="4"/>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B29" s="8" t="s">
-        <v>37</v>
+      <c r="B29" s="32" t="s">
+        <v>35</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>15</v>
+        <v>23</v>
+      </c>
+      <c r="D29" s="38" t="s">
+        <v>40</v>
       </c>
       <c r="E29" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F29" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="F29" s="3" t="s">
-        <v>41</v>
-      </c>
       <c r="G29" s="2">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="H29" s="2">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="I29" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B30" s="8"/>
+      <c r="B30" s="32"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
@@ -1397,30 +1398,25 @@
       <c r="I31" s="4"/>
     </row>
     <row r="32" spans="2:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B32" s="9"/>
-      <c r="C32" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="11">
+      <c r="B32" s="6"/>
+      <c r="C32" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="D32" s="33"/>
+      <c r="E32" s="33"/>
+      <c r="F32" s="33"/>
+      <c r="G32" s="33"/>
+      <c r="H32" s="7">
         <f>H27-H29</f>
-        <v>2500</v>
-      </c>
-      <c r="I32" s="12" t="s">
+        <v>1500</v>
+      </c>
+      <c r="I32" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="33" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004"/>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B5:I5"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="B3:I3"/>
-    <mergeCell ref="B10:I10"/>
-    <mergeCell ref="B25:I25"/>
     <mergeCell ref="B29:B30"/>
     <mergeCell ref="C32:G32"/>
     <mergeCell ref="C16:G16"/>
@@ -1429,6 +1425,11 @@
     <mergeCell ref="C21:G21"/>
     <mergeCell ref="B23:I23"/>
     <mergeCell ref="B24:I24"/>
+    <mergeCell ref="B5:I5"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="B3:I3"/>
+    <mergeCell ref="B10:I10"/>
+    <mergeCell ref="B25:I25"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.35" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
